--- a/diplom/database.xlsx
+++ b/diplom/database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,61 +496,73 @@
           <t>Олег</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Сивак</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Олегович</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Чоловіча</t>
+          <t>Приховано</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1974-04-29</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>49 років, 8 місяців, 12 днів</t>
+          <t>24 років, 0 місяців, 10 днів</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Александра</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Сивак</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Степановна</t>
+          <t>Evgen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Приховано</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2000-01-11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>24 років, 0 місяців, 0 днів</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Evgenovich</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Жіноча</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1982-05-05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>41 років, 8 місяців, 5 днів</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2000-01-12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23 років, 11 місяців, 30 днів</t>
         </is>
       </c>
     </row>
